--- a/《Excel VBA应用与技巧大全》配套实例文件/第2章/原始文件/使用数组计算销售额之和.xlsx
+++ b/《Excel VBA应用与技巧大全》配套实例文件/第2章/原始文件/使用数组计算销售额之和.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\1、创作中\Excel VBA应用与技巧大全（新）\实例文件\第2章\原始文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\Excel VBA应用与技巧大全\《Excel VBA应用与技巧大全》配套实例文件\第2章\原始文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078FAE6-F45B-41EB-994A-ECD4DCC57F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C6D615-E4F4-4E57-B275-A11204AF934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="4185" xr2:uid="{9529F9EA-C6A7-424B-A5CC-786AC1CEBB1E}"/>
+    <workbookView xWindow="1215" yWindow="900" windowWidth="21600" windowHeight="13155" xr2:uid="{9529F9EA-C6A7-424B-A5CC-786AC1CEBB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -112,10 +120,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,7 +444,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -448,12 +456,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -470,7 +478,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43983</v>
       </c>
       <c r="B3" s="1">
@@ -485,7 +493,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43984</v>
       </c>
       <c r="B4" s="1">
@@ -500,7 +508,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43985</v>
       </c>
       <c r="B5" s="1">
@@ -515,7 +523,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43986</v>
       </c>
       <c r="B6" s="1">
@@ -530,7 +538,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43987</v>
       </c>
       <c r="B7" s="1">
@@ -545,7 +553,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43988</v>
       </c>
       <c r="B8" s="1">
@@ -560,7 +568,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43989</v>
       </c>
       <c r="B9" s="1">
@@ -575,7 +583,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43990</v>
       </c>
       <c r="B10" s="1">
@@ -590,7 +598,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43991</v>
       </c>
       <c r="B11" s="1">
@@ -605,7 +613,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43992</v>
       </c>
       <c r="B12" s="1">
@@ -620,7 +628,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43993</v>
       </c>
       <c r="B13" s="1">
@@ -635,7 +643,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43994</v>
       </c>
       <c r="B14" s="1">
@@ -650,7 +658,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43995</v>
       </c>
       <c r="B15" s="1">
@@ -665,7 +673,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43996</v>
       </c>
       <c r="B16" s="1">
@@ -680,7 +688,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43997</v>
       </c>
       <c r="B17" s="1">
@@ -695,7 +703,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43998</v>
       </c>
       <c r="B18" s="1">
@@ -710,7 +718,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43999</v>
       </c>
       <c r="B19" s="1">
@@ -725,7 +733,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>44000</v>
       </c>
       <c r="B20" s="1">
@@ -740,7 +748,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>44001</v>
       </c>
       <c r="B21" s="1">
@@ -755,7 +763,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>44002</v>
       </c>
       <c r="B22" s="1">
@@ -770,7 +778,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>44003</v>
       </c>
       <c r="B23" s="1">
@@ -785,7 +793,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>44004</v>
       </c>
       <c r="B24" s="1">
@@ -800,7 +808,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>44005</v>
       </c>
       <c r="B25" s="1">
@@ -815,7 +823,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>44006</v>
       </c>
       <c r="B26" s="1">
@@ -830,7 +838,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>44007</v>
       </c>
       <c r="B27" s="1">
@@ -845,7 +853,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>44008</v>
       </c>
       <c r="B28" s="1">
@@ -860,7 +868,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>44009</v>
       </c>
       <c r="B29" s="1">
@@ -875,7 +883,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>44010</v>
       </c>
       <c r="B30" s="1">
@@ -890,7 +898,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>44011</v>
       </c>
       <c r="B31" s="1">
@@ -905,7 +913,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>44012</v>
       </c>
       <c r="B32" s="1">
